--- a/Display Result.xlsx
+++ b/Display Result.xlsx
@@ -83,19 +83,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>898989</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>14</t>
   </si>
   <si>
     <t>1</t>
@@ -104,7 +104,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>27</t>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
         <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
